--- a/data/pca/factorExposure/factorExposure_2012-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01538944445470277</v>
+        <v>-0.01524819682635085</v>
       </c>
       <c r="C2">
-        <v>-0.03062756246757247</v>
+        <v>-0.02608498211288155</v>
       </c>
       <c r="D2">
-        <v>0.004750093222377795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007003706827169593</v>
+      </c>
+      <c r="E2">
+        <v>-0.01595049265121091</v>
+      </c>
+      <c r="F2">
+        <v>-0.01192038840370041</v>
+      </c>
+      <c r="G2">
+        <v>-0.01630853774681543</v>
+      </c>
+      <c r="H2">
+        <v>0.05052427963051524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0732871849470261</v>
+        <v>-0.08791498066926402</v>
       </c>
       <c r="C4">
-        <v>-0.05264701503635915</v>
+        <v>-0.04072911290096542</v>
       </c>
       <c r="D4">
-        <v>0.0804416073850836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06249485441374513</v>
+      </c>
+      <c r="E4">
+        <v>-0.01130070131479514</v>
+      </c>
+      <c r="F4">
+        <v>-0.03851793615625628</v>
+      </c>
+      <c r="G4">
+        <v>-0.002417276900622618</v>
+      </c>
+      <c r="H4">
+        <v>-0.03572258744833972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1090003863981796</v>
+        <v>-0.1193615027693883</v>
       </c>
       <c r="C6">
-        <v>-0.0532642540383857</v>
+        <v>-0.03488817886078261</v>
       </c>
       <c r="D6">
-        <v>-0.002220311960421099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01353407317518757</v>
+      </c>
+      <c r="E6">
+        <v>0.01702481893242914</v>
+      </c>
+      <c r="F6">
+        <v>-0.05421659566575383</v>
+      </c>
+      <c r="G6">
+        <v>-0.03432281435919975</v>
+      </c>
+      <c r="H6">
+        <v>0.1219085346759296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05082673530663906</v>
+        <v>-0.06441167990266436</v>
       </c>
       <c r="C7">
-        <v>-0.02726176759202093</v>
+        <v>-0.01957035532608522</v>
       </c>
       <c r="D7">
-        <v>0.04508955069062934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04465528595121839</v>
+      </c>
+      <c r="E7">
+        <v>-0.03539222064626484</v>
+      </c>
+      <c r="F7">
+        <v>-0.03522667812730165</v>
+      </c>
+      <c r="G7">
+        <v>0.03763673897776471</v>
+      </c>
+      <c r="H7">
+        <v>-0.005149898013589228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03961987103620201</v>
+        <v>-0.04177783834417906</v>
       </c>
       <c r="C8">
-        <v>-0.01552999997870797</v>
+        <v>-0.01106466630732062</v>
       </c>
       <c r="D8">
-        <v>0.06048607304218249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02331575395257033</v>
+      </c>
+      <c r="E8">
+        <v>-0.02349759131570108</v>
+      </c>
+      <c r="F8">
+        <v>-0.05660131222115031</v>
+      </c>
+      <c r="G8">
+        <v>-0.05805259624382436</v>
+      </c>
+      <c r="H8">
+        <v>0.005948884838784861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06857090025168674</v>
+        <v>-0.07962523213452249</v>
       </c>
       <c r="C9">
-        <v>-0.04228693374967724</v>
+        <v>-0.03020069102839016</v>
       </c>
       <c r="D9">
-        <v>0.07067117431732521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0608285475816011</v>
+      </c>
+      <c r="E9">
+        <v>-0.03106556040098708</v>
+      </c>
+      <c r="F9">
+        <v>-0.0353663981544866</v>
+      </c>
+      <c r="G9">
+        <v>-0.008674979357087078</v>
+      </c>
+      <c r="H9">
+        <v>-0.04647862554213702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02813603408525696</v>
+        <v>-0.03282399659131494</v>
       </c>
       <c r="C10">
-        <v>-0.02392307934721152</v>
+        <v>-0.03655520867472509</v>
       </c>
       <c r="D10">
-        <v>-0.1683520439534069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1721160518541633</v>
+      </c>
+      <c r="E10">
+        <v>-0.04069234277592971</v>
+      </c>
+      <c r="F10">
+        <v>-0.0486994273091418</v>
+      </c>
+      <c r="G10">
+        <v>0.02391670082000056</v>
+      </c>
+      <c r="H10">
+        <v>0.03877951949685359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07208022016139945</v>
+        <v>-0.07662479916455638</v>
       </c>
       <c r="C11">
-        <v>-0.04516825162775697</v>
+        <v>-0.02759501494790982</v>
       </c>
       <c r="D11">
-        <v>0.059707135135366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0627188169956486</v>
+      </c>
+      <c r="E11">
+        <v>0.004246232223877707</v>
+      </c>
+      <c r="F11">
+        <v>-0.02829398338965603</v>
+      </c>
+      <c r="G11">
+        <v>-0.0002993647670214963</v>
+      </c>
+      <c r="H11">
+        <v>-0.08589170839968763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05911208885416794</v>
+        <v>-0.06819115457505952</v>
       </c>
       <c r="C12">
-        <v>-0.05168155245711546</v>
+        <v>-0.03762124566920479</v>
       </c>
       <c r="D12">
-        <v>0.04793713363225757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04793126664599712</v>
+      </c>
+      <c r="E12">
+        <v>-0.01365571357215287</v>
+      </c>
+      <c r="F12">
+        <v>-0.01978597313227223</v>
+      </c>
+      <c r="G12">
+        <v>-0.002862482418562374</v>
+      </c>
+      <c r="H12">
+        <v>-0.04037968586185224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06106726526933834</v>
+        <v>-0.06430905693917893</v>
       </c>
       <c r="C13">
-        <v>-0.038639600546337</v>
+        <v>-0.02459272808905915</v>
       </c>
       <c r="D13">
-        <v>0.06032448532441492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04329363893527368</v>
+      </c>
+      <c r="E13">
+        <v>-0.01505961419207211</v>
+      </c>
+      <c r="F13">
+        <v>-0.006629035329708293</v>
+      </c>
+      <c r="G13">
+        <v>0.006871016324174213</v>
+      </c>
+      <c r="H13">
+        <v>-0.04803265224105396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03299942089288031</v>
+        <v>-0.04078989642787376</v>
       </c>
       <c r="C14">
-        <v>-0.03201289608027429</v>
+        <v>-0.02877446295433787</v>
       </c>
       <c r="D14">
-        <v>0.002578750531626188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.006993286420445213</v>
+      </c>
+      <c r="E14">
+        <v>-0.03206260465833792</v>
+      </c>
+      <c r="F14">
+        <v>-0.01633014928041042</v>
+      </c>
+      <c r="G14">
+        <v>-0.007948053873035</v>
+      </c>
+      <c r="H14">
+        <v>-0.06023606842002579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04028786420561867</v>
+        <v>-0.04039042949089403</v>
       </c>
       <c r="C15">
-        <v>-0.01017254701583471</v>
+        <v>-0.003934558087567846</v>
       </c>
       <c r="D15">
-        <v>0.01740593512683862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004272182548639014</v>
+      </c>
+      <c r="E15">
+        <v>-0.03403417342293747</v>
+      </c>
+      <c r="F15">
+        <v>0.000628370763933052</v>
+      </c>
+      <c r="G15">
+        <v>-0.02469374878609812</v>
+      </c>
+      <c r="H15">
+        <v>-0.03718158756258873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06125949991838435</v>
+        <v>-0.07085358095837296</v>
       </c>
       <c r="C16">
-        <v>-0.0417183872417195</v>
+        <v>-0.02877896312629341</v>
       </c>
       <c r="D16">
-        <v>0.04829271019336673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06128000789458601</v>
+      </c>
+      <c r="E16">
+        <v>-0.004504509213854573</v>
+      </c>
+      <c r="F16">
+        <v>-0.02562883693227975</v>
+      </c>
+      <c r="G16">
+        <v>0.004057746237166743</v>
+      </c>
+      <c r="H16">
+        <v>-0.05096817051362607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06283674954224128</v>
+        <v>-0.06363139853016725</v>
       </c>
       <c r="C20">
-        <v>-0.0253338930322569</v>
+        <v>-0.01055403113727513</v>
       </c>
       <c r="D20">
-        <v>0.05434935660370667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03890032718530168</v>
+      </c>
+      <c r="E20">
+        <v>-0.01961077117321869</v>
+      </c>
+      <c r="F20">
+        <v>-0.027779412622291</v>
+      </c>
+      <c r="G20">
+        <v>-0.01463272747713845</v>
+      </c>
+      <c r="H20">
+        <v>-0.04601812769406727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02555992271976279</v>
+        <v>-0.02615138895288921</v>
       </c>
       <c r="C21">
-        <v>0.002808017942831229</v>
+        <v>0.00905775936022191</v>
       </c>
       <c r="D21">
-        <v>0.02852701436489819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02583541410290576</v>
+      </c>
+      <c r="E21">
+        <v>-0.04549374822604051</v>
+      </c>
+      <c r="F21">
+        <v>0.01462535322481391</v>
+      </c>
+      <c r="G21">
+        <v>-0.008571260675899389</v>
+      </c>
+      <c r="H21">
+        <v>0.04801565189573127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07820910020059671</v>
+        <v>-0.0733821930915306</v>
       </c>
       <c r="C22">
-        <v>-0.05874742847844701</v>
+        <v>-0.03744472758552588</v>
       </c>
       <c r="D22">
-        <v>0.1210985881812375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0799678358803768</v>
+      </c>
+      <c r="E22">
+        <v>-0.5994683969942642</v>
+      </c>
+      <c r="F22">
+        <v>0.1712744391784549</v>
+      </c>
+      <c r="G22">
+        <v>0.06854294093046055</v>
+      </c>
+      <c r="H22">
+        <v>0.1528908797720515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07917505510413786</v>
+        <v>-0.0741284109162717</v>
       </c>
       <c r="C23">
-        <v>-0.05755731008582608</v>
+        <v>-0.03599060187111185</v>
       </c>
       <c r="D23">
-        <v>0.1226528769119288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0809713368465812</v>
+      </c>
+      <c r="E23">
+        <v>-0.5987237052315799</v>
+      </c>
+      <c r="F23">
+        <v>0.1703113523691463</v>
+      </c>
+      <c r="G23">
+        <v>0.06731244466011438</v>
+      </c>
+      <c r="H23">
+        <v>0.1485807349103692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07310409128321776</v>
+        <v>-0.08058967506432893</v>
       </c>
       <c r="C24">
-        <v>-0.05183207947943295</v>
+        <v>-0.03545027545612231</v>
       </c>
       <c r="D24">
-        <v>0.06004397950998147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05972591780792325</v>
+      </c>
+      <c r="E24">
+        <v>-0.01822162702289431</v>
+      </c>
+      <c r="F24">
+        <v>-0.03585927510014271</v>
+      </c>
+      <c r="G24">
+        <v>-0.01292034753723817</v>
+      </c>
+      <c r="H24">
+        <v>-0.04968819475102965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07179488475427435</v>
+        <v>-0.07818732561014059</v>
       </c>
       <c r="C25">
-        <v>-0.05556484982761216</v>
+        <v>-0.03875796412388423</v>
       </c>
       <c r="D25">
-        <v>0.06775862538750245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0523267473705244</v>
+      </c>
+      <c r="E25">
+        <v>-0.02006951328512678</v>
+      </c>
+      <c r="F25">
+        <v>-0.02552932709367016</v>
+      </c>
+      <c r="G25">
+        <v>-0.01979351947182813</v>
+      </c>
+      <c r="H25">
+        <v>-0.05386555918034855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04570176208701174</v>
+        <v>-0.04801195098032926</v>
       </c>
       <c r="C26">
-        <v>-0.01011742633217605</v>
+        <v>-0.00340904189986382</v>
       </c>
       <c r="D26">
-        <v>0.01346236840897459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01696590204162885</v>
+      </c>
+      <c r="E26">
+        <v>-0.04706563695147935</v>
+      </c>
+      <c r="F26">
+        <v>-0.02823175211756454</v>
+      </c>
+      <c r="G26">
+        <v>0.008006716416602106</v>
+      </c>
+      <c r="H26">
+        <v>-0.05757433327050261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05193613534789512</v>
+        <v>-0.06069433690060334</v>
       </c>
       <c r="C28">
-        <v>-0.06312518079613536</v>
+        <v>-0.07742486717411337</v>
       </c>
       <c r="D28">
-        <v>-0.3123236241487704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3084050404583311</v>
+      </c>
+      <c r="E28">
+        <v>-0.03249133606010298</v>
+      </c>
+      <c r="F28">
+        <v>-0.05356491603862903</v>
+      </c>
+      <c r="G28">
+        <v>-0.02874996353937574</v>
+      </c>
+      <c r="H28">
+        <v>0.04585797196478972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04164748086674645</v>
+        <v>-0.04859078011956133</v>
       </c>
       <c r="C29">
-        <v>-0.0296729317905835</v>
+        <v>-0.02546455315219059</v>
       </c>
       <c r="D29">
-        <v>0.00854043063992338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007021831145841145</v>
+      </c>
+      <c r="E29">
+        <v>-0.06083073952770698</v>
+      </c>
+      <c r="F29">
+        <v>-0.01078973239784045</v>
+      </c>
+      <c r="G29">
+        <v>0.006930940189001329</v>
+      </c>
+      <c r="H29">
+        <v>-0.07672484425729613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1255019729280845</v>
+        <v>-0.1306058284858246</v>
       </c>
       <c r="C30">
-        <v>-0.08947580804191112</v>
+        <v>-0.06357489414927792</v>
       </c>
       <c r="D30">
-        <v>0.1009056005986403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06697708142950078</v>
+      </c>
+      <c r="E30">
+        <v>-0.08106970604133908</v>
+      </c>
+      <c r="F30">
+        <v>0.007971113270298374</v>
+      </c>
+      <c r="G30">
+        <v>-0.08139693079283823</v>
+      </c>
+      <c r="H30">
+        <v>0.04244359292823423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04434761426483223</v>
+        <v>-0.0488867195024829</v>
       </c>
       <c r="C31">
-        <v>-0.0227207122152967</v>
+        <v>-0.01452686576820343</v>
       </c>
       <c r="D31">
-        <v>0.02226584197367974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02684235320406265</v>
+      </c>
+      <c r="E31">
+        <v>-0.02507312342379554</v>
+      </c>
+      <c r="F31">
+        <v>-0.01293011979482873</v>
+      </c>
+      <c r="G31">
+        <v>0.02439135549427102</v>
+      </c>
+      <c r="H31">
+        <v>-0.06475388999435194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0376439395360899</v>
+        <v>-0.03887507198984629</v>
       </c>
       <c r="C32">
-        <v>-0.0290761413883108</v>
+        <v>-0.02346719830240308</v>
       </c>
       <c r="D32">
-        <v>0.02150489004685168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01088447138692086</v>
+      </c>
+      <c r="E32">
+        <v>-0.04896736356791904</v>
+      </c>
+      <c r="F32">
+        <v>0.009456636837257065</v>
+      </c>
+      <c r="G32">
+        <v>-0.0266245874152965</v>
+      </c>
+      <c r="H32">
+        <v>-0.07474594825341124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08392639320690867</v>
+        <v>-0.09604564786580073</v>
       </c>
       <c r="C33">
-        <v>-0.04335948662447421</v>
+        <v>-0.0286948952570479</v>
       </c>
       <c r="D33">
-        <v>0.05980218952339637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04534027639249689</v>
+      </c>
+      <c r="E33">
+        <v>-0.01393415826904486</v>
+      </c>
+      <c r="F33">
+        <v>-0.006446255861191902</v>
+      </c>
+      <c r="G33">
+        <v>0.006212236045072072</v>
+      </c>
+      <c r="H33">
+        <v>-0.05510877427014402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05750287233785806</v>
+        <v>-0.06336112231407678</v>
       </c>
       <c r="C34">
-        <v>-0.02762665351583351</v>
+        <v>-0.01449709724161244</v>
       </c>
       <c r="D34">
-        <v>0.05707055487231383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0515882813969599</v>
+      </c>
+      <c r="E34">
+        <v>-0.006646133163284764</v>
+      </c>
+      <c r="F34">
+        <v>-0.01595480551227547</v>
+      </c>
+      <c r="G34">
+        <v>0.001122944299582228</v>
+      </c>
+      <c r="H34">
+        <v>-0.05744004866877944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03771865702473295</v>
+        <v>-0.03985948189582131</v>
       </c>
       <c r="C35">
-        <v>-0.00770133994746339</v>
+        <v>-0.003596310393804395</v>
       </c>
       <c r="D35">
-        <v>0.01584714257883509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009088377373393243</v>
+      </c>
+      <c r="E35">
+        <v>-0.01953434762073653</v>
+      </c>
+      <c r="F35">
+        <v>0.01347584848642996</v>
+      </c>
+      <c r="G35">
+        <v>0.009033916058738694</v>
+      </c>
+      <c r="H35">
+        <v>-0.0172810363275975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02263825717909692</v>
+        <v>-0.02875990465746702</v>
       </c>
       <c r="C36">
-        <v>-0.01609819765745399</v>
+        <v>-0.01342692151126563</v>
       </c>
       <c r="D36">
-        <v>0.02311731636314716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01526890205898142</v>
+      </c>
+      <c r="E36">
+        <v>-0.03346222709551078</v>
+      </c>
+      <c r="F36">
+        <v>-0.02201100832554539</v>
+      </c>
+      <c r="G36">
+        <v>0.007544356777699652</v>
+      </c>
+      <c r="H36">
+        <v>-0.04520675466188762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04035662561979305</v>
+        <v>-0.04431050098152149</v>
       </c>
       <c r="C38">
-        <v>-0.003567762767142365</v>
+        <v>0.00126890613837422</v>
       </c>
       <c r="D38">
-        <v>0.01941171018842587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0182928008785379</v>
+      </c>
+      <c r="E38">
+        <v>-0.05252097312116169</v>
+      </c>
+      <c r="F38">
+        <v>0.006856264452529444</v>
+      </c>
+      <c r="G38">
+        <v>-0.007433159023203434</v>
+      </c>
+      <c r="H38">
+        <v>-0.03495874955711329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09166973298431183</v>
+        <v>-0.1022589191152228</v>
       </c>
       <c r="C39">
-        <v>-0.07327864138484651</v>
+        <v>-0.05318570719397241</v>
       </c>
       <c r="D39">
-        <v>0.05663351900466223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05993791801640735</v>
+      </c>
+      <c r="E39">
+        <v>-0.005073323371870668</v>
+      </c>
+      <c r="F39">
+        <v>-6.483478714656346e-06</v>
+      </c>
+      <c r="G39">
+        <v>-0.03531436221954685</v>
+      </c>
+      <c r="H39">
+        <v>-0.04441865519514151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07678469416504351</v>
+        <v>-0.07162529790368334</v>
       </c>
       <c r="C40">
-        <v>-0.03794862445832831</v>
+        <v>-0.01901945606158102</v>
       </c>
       <c r="D40">
-        <v>-0.0008309812608564139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.00963675649511204</v>
+      </c>
+      <c r="E40">
+        <v>-0.01857529434099415</v>
+      </c>
+      <c r="F40">
+        <v>0.05788810414839767</v>
+      </c>
+      <c r="G40">
+        <v>-0.05462657404712505</v>
+      </c>
+      <c r="H40">
+        <v>0.09049579733055428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04136959008342573</v>
+        <v>-0.04477268244405524</v>
       </c>
       <c r="C41">
-        <v>-0.005212692789267266</v>
+        <v>0.0008775729742636436</v>
       </c>
       <c r="D41">
-        <v>0.03463070032374655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03173062721212985</v>
+      </c>
+      <c r="E41">
+        <v>0.0002479423420503755</v>
+      </c>
+      <c r="F41">
+        <v>0.01450628444614798</v>
+      </c>
+      <c r="G41">
+        <v>-0.009972942932098515</v>
+      </c>
+      <c r="H41">
+        <v>-0.03449901578800628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05024654299809364</v>
+        <v>-0.05926452693606724</v>
       </c>
       <c r="C43">
-        <v>-0.02536330575452847</v>
+        <v>-0.01830721692935897</v>
       </c>
       <c r="D43">
-        <v>0.01507815416944629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02243126568041411</v>
+      </c>
+      <c r="E43">
+        <v>-0.02123015836138935</v>
+      </c>
+      <c r="F43">
+        <v>-0.01296295777636956</v>
+      </c>
+      <c r="G43">
+        <v>0.01552603870249277</v>
+      </c>
+      <c r="H43">
+        <v>-0.05407208983513686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09452949976771996</v>
+        <v>-0.09671260001185045</v>
       </c>
       <c r="C44">
-        <v>-0.09359115463320546</v>
+        <v>-0.0693660415599797</v>
       </c>
       <c r="D44">
-        <v>0.07959899281667025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05524423266237932</v>
+      </c>
+      <c r="E44">
+        <v>-0.0839777773359888</v>
+      </c>
+      <c r="F44">
+        <v>-0.05145243988962685</v>
+      </c>
+      <c r="G44">
+        <v>-0.02845520218403543</v>
+      </c>
+      <c r="H44">
+        <v>-0.01418503516894755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02494986220625938</v>
+        <v>-0.03429080030062856</v>
       </c>
       <c r="C46">
-        <v>-0.01427225244194211</v>
+        <v>-0.0124325150894265</v>
       </c>
       <c r="D46">
-        <v>0.02578121947797175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0329257759835961</v>
+      </c>
+      <c r="E46">
+        <v>-0.03558685667901614</v>
+      </c>
+      <c r="F46">
+        <v>-0.01620395761379958</v>
+      </c>
+      <c r="G46">
+        <v>0.006397711014591228</v>
+      </c>
+      <c r="H46">
+        <v>-0.03749656254215515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03027460871081981</v>
+        <v>-0.03797266772832683</v>
       </c>
       <c r="C47">
-        <v>-0.02453249745050588</v>
+        <v>-0.02047306173397443</v>
       </c>
       <c r="D47">
-        <v>0.01079976869977145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008953481763162652</v>
+      </c>
+      <c r="E47">
+        <v>-0.04652662524938658</v>
+      </c>
+      <c r="F47">
+        <v>-0.008700192968330007</v>
+      </c>
+      <c r="G47">
+        <v>0.04241742940280621</v>
+      </c>
+      <c r="H47">
+        <v>-0.02750204829770467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03385417654929485</v>
+        <v>-0.03858528088590561</v>
       </c>
       <c r="C48">
-        <v>-0.0174197608275682</v>
+        <v>-0.01059639732094176</v>
       </c>
       <c r="D48">
-        <v>0.03140199119197242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01917157373740923</v>
+      </c>
+      <c r="E48">
+        <v>-0.04051883495861875</v>
+      </c>
+      <c r="F48">
+        <v>-0.00709325219908867</v>
+      </c>
+      <c r="G48">
+        <v>-0.01313421302373455</v>
+      </c>
+      <c r="H48">
+        <v>-0.04025389528395199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1608410284315094</v>
+        <v>-0.1899673678656493</v>
       </c>
       <c r="C49">
-        <v>-0.05023483093149371</v>
+        <v>-0.03184440987283309</v>
       </c>
       <c r="D49">
-        <v>-0.01183428640703286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02454847037022998</v>
+      </c>
+      <c r="E49">
+        <v>0.1520842010029463</v>
+      </c>
+      <c r="F49">
+        <v>-0.06320523012630799</v>
+      </c>
+      <c r="G49">
+        <v>0.05749875440843062</v>
+      </c>
+      <c r="H49">
+        <v>0.2298876533261392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04049002135493836</v>
+        <v>-0.04625395229295595</v>
       </c>
       <c r="C50">
-        <v>-0.02001254626746563</v>
+        <v>-0.01351059350990904</v>
       </c>
       <c r="D50">
-        <v>0.03988962332310928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03257989422322047</v>
+      </c>
+      <c r="E50">
+        <v>-0.0438341611395761</v>
+      </c>
+      <c r="F50">
+        <v>-0.01455352693764033</v>
+      </c>
+      <c r="G50">
+        <v>0.02220200450612482</v>
+      </c>
+      <c r="H50">
+        <v>-0.06648769775173798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02798599080464513</v>
+        <v>-0.03064465686111701</v>
       </c>
       <c r="C51">
-        <v>-0.01154035434790338</v>
+        <v>-0.005883594609074509</v>
       </c>
       <c r="D51">
-        <v>0.008227483674751523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.010394362461148</v>
+      </c>
+      <c r="E51">
+        <v>-0.01296709977636405</v>
+      </c>
+      <c r="F51">
+        <v>-0.01610515508181303</v>
+      </c>
+      <c r="G51">
+        <v>-9.286994043939004e-05</v>
+      </c>
+      <c r="H51">
+        <v>0.0005034592890466177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1536510272773475</v>
+        <v>-0.1627145660403361</v>
       </c>
       <c r="C53">
-        <v>-0.07565437669358736</v>
+        <v>-0.0513091303728209</v>
       </c>
       <c r="D53">
-        <v>0.00945517172583777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01705901846919586</v>
+      </c>
+      <c r="E53">
+        <v>0.02901751123978703</v>
+      </c>
+      <c r="F53">
+        <v>-0.01766690679065741</v>
+      </c>
+      <c r="G53">
+        <v>0.02370248648511642</v>
+      </c>
+      <c r="H53">
+        <v>-0.1813232041764097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05673904024569976</v>
+        <v>-0.05854993260190999</v>
       </c>
       <c r="C54">
-        <v>-0.02464904961399877</v>
+        <v>-0.01400546846725993</v>
       </c>
       <c r="D54">
-        <v>0.02237122191835239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01525559405732496</v>
+      </c>
+      <c r="E54">
+        <v>-0.04640395489514536</v>
+      </c>
+      <c r="F54">
+        <v>-0.007335648918743233</v>
+      </c>
+      <c r="G54">
+        <v>-0.0131811851505692</v>
+      </c>
+      <c r="H54">
+        <v>-0.05130224818818866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003810208137334</v>
+        <v>-0.1036768379543904</v>
       </c>
       <c r="C55">
-        <v>-0.05219636530065625</v>
+        <v>-0.03412417164426704</v>
       </c>
       <c r="D55">
-        <v>0.02047726817186825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0218804250763106</v>
+      </c>
+      <c r="E55">
+        <v>-0.01148856592221081</v>
+      </c>
+      <c r="F55">
+        <v>-0.01597832787681201</v>
+      </c>
+      <c r="G55">
+        <v>0.01713282477198786</v>
+      </c>
+      <c r="H55">
+        <v>-0.1550193939801813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1501667948957323</v>
+        <v>-0.16213767892091</v>
       </c>
       <c r="C56">
-        <v>-0.09104967339701292</v>
+        <v>-0.06549926020865904</v>
       </c>
       <c r="D56">
-        <v>0.01358824428357878</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01919808826034945</v>
+      </c>
+      <c r="E56">
+        <v>0.02375367128772646</v>
+      </c>
+      <c r="F56">
+        <v>-0.03169983316501505</v>
+      </c>
+      <c r="G56">
+        <v>0.03793590814339712</v>
+      </c>
+      <c r="H56">
+        <v>-0.1741535800230479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1300755116306076</v>
+        <v>-0.1011373948253455</v>
       </c>
       <c r="C58">
-        <v>-0.001917633198521289</v>
+        <v>0.0397056424451545</v>
       </c>
       <c r="D58">
-        <v>0.03138917976200625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.035762298087952</v>
+      </c>
+      <c r="E58">
+        <v>-0.1412091457417881</v>
+      </c>
+      <c r="F58">
+        <v>0.00637864813028504</v>
+      </c>
+      <c r="G58">
+        <v>0.01450757676589124</v>
+      </c>
+      <c r="H58">
+        <v>0.2229137134058994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1217432526621925</v>
+        <v>-0.1358339447172978</v>
       </c>
       <c r="C59">
-        <v>-0.07459449458899653</v>
+        <v>-0.08440389204658379</v>
       </c>
       <c r="D59">
-        <v>-0.3642104491256087</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3661927468296576</v>
+      </c>
+      <c r="E59">
+        <v>-0.02803672965798335</v>
+      </c>
+      <c r="F59">
+        <v>-0.01548050492112149</v>
+      </c>
+      <c r="G59">
+        <v>0.01946731784701555</v>
+      </c>
+      <c r="H59">
+        <v>-0.002471188475035227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2039494902075169</v>
+        <v>-0.2335999472262522</v>
       </c>
       <c r="C60">
-        <v>-0.09234654190521802</v>
+        <v>-0.06345785324567869</v>
       </c>
       <c r="D60">
-        <v>0.01778470483494623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04067473090935176</v>
+      </c>
+      <c r="E60">
+        <v>0.09633089764425407</v>
+      </c>
+      <c r="F60">
+        <v>-0.05772612826125447</v>
+      </c>
+      <c r="G60">
+        <v>-0.02213332512050397</v>
+      </c>
+      <c r="H60">
+        <v>0.1504532116610239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08184644738819598</v>
+        <v>-0.08887294561556182</v>
       </c>
       <c r="C61">
-        <v>-0.05261351262300834</v>
+        <v>-0.03826998780049536</v>
       </c>
       <c r="D61">
-        <v>0.04411299695650832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04014583149562349</v>
+      </c>
+      <c r="E61">
+        <v>-0.0005226513618800073</v>
+      </c>
+      <c r="F61">
+        <v>-0.0005644833764745951</v>
+      </c>
+      <c r="G61">
+        <v>0.0006496881462557663</v>
+      </c>
+      <c r="H61">
+        <v>-0.05966116279754913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1287721289873018</v>
+        <v>-0.13857035458276</v>
       </c>
       <c r="C62">
-        <v>-0.0638040497094234</v>
+        <v>-0.04107824669513251</v>
       </c>
       <c r="D62">
-        <v>0.02114371500418687</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03221220355317137</v>
+      </c>
+      <c r="E62">
+        <v>0.05919681513713635</v>
+      </c>
+      <c r="F62">
+        <v>-0.0120043313659079</v>
+      </c>
+      <c r="G62">
+        <v>-0.00160184234512876</v>
+      </c>
+      <c r="H62">
+        <v>-0.1862508638453719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0512351003681271</v>
+        <v>-0.05119622096762022</v>
       </c>
       <c r="C63">
-        <v>-0.024622386553113</v>
+        <v>-0.01412449991468515</v>
       </c>
       <c r="D63">
-        <v>0.02162336828308847</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01968924229826499</v>
+      </c>
+      <c r="E63">
+        <v>-0.04800977140729294</v>
+      </c>
+      <c r="F63">
+        <v>0.00726756370035397</v>
+      </c>
+      <c r="G63">
+        <v>-0.02026596893462814</v>
+      </c>
+      <c r="H63">
+        <v>-0.05297892314751496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1031441857230664</v>
+        <v>-0.1087872981401067</v>
       </c>
       <c r="C64">
-        <v>-0.03215221763539765</v>
+        <v>-0.01671978442016102</v>
       </c>
       <c r="D64">
-        <v>0.04316627577632986</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03011498575689103</v>
+      </c>
+      <c r="E64">
+        <v>-0.03090779344121248</v>
+      </c>
+      <c r="F64">
+        <v>-0.03939311660702251</v>
+      </c>
+      <c r="G64">
+        <v>-0.04689838474976808</v>
+      </c>
+      <c r="H64">
+        <v>-0.04294582740605459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1246322515487249</v>
+        <v>-0.1260349459392484</v>
       </c>
       <c r="C65">
-        <v>-0.05893584844590789</v>
+        <v>-0.03857536626337785</v>
       </c>
       <c r="D65">
-        <v>-0.01680947887594696</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007045504263727654</v>
+      </c>
+      <c r="E65">
+        <v>-0.004042920614590401</v>
+      </c>
+      <c r="F65">
+        <v>-0.05354657838449935</v>
+      </c>
+      <c r="G65">
+        <v>-0.06367164566321219</v>
+      </c>
+      <c r="H65">
+        <v>0.1524843203830944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1457053903840022</v>
+        <v>-0.1546443901690528</v>
       </c>
       <c r="C66">
-        <v>-0.07425519231658254</v>
+        <v>-0.04689280945011492</v>
       </c>
       <c r="D66">
-        <v>0.1116092543508576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09497557708189143</v>
+      </c>
+      <c r="E66">
+        <v>0.02345124992267573</v>
+      </c>
+      <c r="F66">
+        <v>-0.01028374841038281</v>
+      </c>
+      <c r="G66">
+        <v>-0.04066936899170488</v>
+      </c>
+      <c r="H66">
+        <v>-0.11528146049015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07339617526385882</v>
+        <v>-0.08415882224669745</v>
       </c>
       <c r="C67">
-        <v>-0.01308120881230855</v>
+        <v>-0.004748885593827555</v>
       </c>
       <c r="D67">
-        <v>0.0224635978388725</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0302144252099135</v>
+      </c>
+      <c r="E67">
+        <v>-0.02037704998621825</v>
+      </c>
+      <c r="F67">
+        <v>-0.02010864203705645</v>
+      </c>
+      <c r="G67">
+        <v>0.01110381964006549</v>
+      </c>
+      <c r="H67">
+        <v>-0.0373772794389816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05863534386952875</v>
+        <v>-0.05645287378887474</v>
       </c>
       <c r="C68">
-        <v>-0.04472627093322136</v>
+        <v>-0.05477742400003676</v>
       </c>
       <c r="D68">
-        <v>-0.2540913824202248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2705892940909082</v>
+      </c>
+      <c r="E68">
+        <v>-0.03860579540539649</v>
+      </c>
+      <c r="F68">
+        <v>-0.01415880007287209</v>
+      </c>
+      <c r="G68">
+        <v>0.01498409793627955</v>
+      </c>
+      <c r="H68">
+        <v>-0.006006476943035018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05145883804589372</v>
+        <v>-0.05294349338309928</v>
       </c>
       <c r="C69">
-        <v>-0.01628733088884631</v>
+        <v>-0.005864324402015702</v>
       </c>
       <c r="D69">
-        <v>0.02031340310173995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01555566093936935</v>
+      </c>
+      <c r="E69">
+        <v>-0.02573045782438948</v>
+      </c>
+      <c r="F69">
+        <v>0.00814761619901001</v>
+      </c>
+      <c r="G69">
+        <v>0.0237714494032496</v>
+      </c>
+      <c r="H69">
+        <v>-0.04700979567819662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004180480775259235</v>
+        <v>-0.0270975470636513</v>
       </c>
       <c r="C70">
-        <v>0.005409718426487283</v>
+        <v>0.0004209407484817416</v>
       </c>
       <c r="D70">
-        <v>0.00393429764146629</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005409724436558456</v>
+      </c>
+      <c r="E70">
+        <v>0.02249348944514035</v>
+      </c>
+      <c r="F70">
+        <v>-0.01419547737346849</v>
+      </c>
+      <c r="G70">
+        <v>0.02832281262285059</v>
+      </c>
+      <c r="H70">
+        <v>0.02707038685447233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05831862422507457</v>
+        <v>-0.05848411118853538</v>
       </c>
       <c r="C71">
-        <v>-0.04437194699382541</v>
+        <v>-0.05856394698159844</v>
       </c>
       <c r="D71">
-        <v>-0.2933975738287925</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2959873002257963</v>
+      </c>
+      <c r="E71">
+        <v>-0.03513395150332433</v>
+      </c>
+      <c r="F71">
+        <v>-0.04309877207641263</v>
+      </c>
+      <c r="G71">
+        <v>0.003911030594059125</v>
+      </c>
+      <c r="H71">
+        <v>-0.008159094694603703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1402386682252745</v>
+        <v>-0.1440390046461314</v>
       </c>
       <c r="C72">
-        <v>-0.06333123095366437</v>
+        <v>-0.03631470959601975</v>
       </c>
       <c r="D72">
-        <v>-0.001401474311808072</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004477317899858261</v>
+      </c>
+      <c r="E72">
+        <v>0.08727503305589696</v>
+      </c>
+      <c r="F72">
+        <v>0.1645228973588916</v>
+      </c>
+      <c r="G72">
+        <v>-0.1213861362519082</v>
+      </c>
+      <c r="H72">
+        <v>-0.01557495690309588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2807438642669272</v>
+        <v>-0.2894711178758572</v>
       </c>
       <c r="C73">
-        <v>-0.1062046265887389</v>
+        <v>-0.04596705128659318</v>
       </c>
       <c r="D73">
-        <v>0.04334153915943378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09318573051781215</v>
+      </c>
+      <c r="E73">
+        <v>0.2099870465860055</v>
+      </c>
+      <c r="F73">
+        <v>-0.1009427099449134</v>
+      </c>
+      <c r="G73">
+        <v>0.1381716272410541</v>
+      </c>
+      <c r="H73">
+        <v>0.4950712605276864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07991605417422447</v>
+        <v>-0.09142346235807408</v>
       </c>
       <c r="C74">
-        <v>-0.07781756146120429</v>
+        <v>-0.06245204602028576</v>
       </c>
       <c r="D74">
-        <v>0.01130361769423657</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02874693715225663</v>
+      </c>
+      <c r="E74">
+        <v>0.002674522465217239</v>
+      </c>
+      <c r="F74">
+        <v>-0.002303633483236486</v>
+      </c>
+      <c r="G74">
+        <v>0.05587774912090086</v>
+      </c>
+      <c r="H74">
+        <v>-0.1139149122159126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09673884391589849</v>
+        <v>-0.1010864977584613</v>
       </c>
       <c r="C75">
-        <v>-0.05155474531200707</v>
+        <v>-0.02834643463644889</v>
       </c>
       <c r="D75">
-        <v>0.004782134788927641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01385005622997722</v>
+      </c>
+      <c r="E75">
+        <v>-0.00348241630592655</v>
+      </c>
+      <c r="F75">
+        <v>-0.02317532457895512</v>
+      </c>
+      <c r="G75">
+        <v>0.0246151234116147</v>
+      </c>
+      <c r="H75">
+        <v>-0.11588159293804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1311198669119086</v>
+        <v>-0.1408936441509012</v>
       </c>
       <c r="C76">
-        <v>-0.08252071705199253</v>
+        <v>-0.05889862449982354</v>
       </c>
       <c r="D76">
-        <v>0.04404041935322526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04700794137557037</v>
+      </c>
+      <c r="E76">
+        <v>-0.02018738584560028</v>
+      </c>
+      <c r="F76">
+        <v>-0.04760784674737492</v>
+      </c>
+      <c r="G76">
+        <v>0.01912874634981331</v>
+      </c>
+      <c r="H76">
+        <v>-0.2021932440083094</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1160641939862478</v>
+        <v>-0.1083502082012006</v>
       </c>
       <c r="C77">
-        <v>-0.01084943675754071</v>
+        <v>0.01603210462293555</v>
       </c>
       <c r="D77">
-        <v>0.0615507906312637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02225281522498579</v>
+      </c>
+      <c r="E77">
+        <v>-0.0207224491677596</v>
+      </c>
+      <c r="F77">
+        <v>-0.1038862771162672</v>
+      </c>
+      <c r="G77">
+        <v>-0.8929409305259586</v>
+      </c>
+      <c r="H77">
+        <v>0.07543689574352573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1034381428250605</v>
+        <v>-0.1434672467055115</v>
       </c>
       <c r="C78">
-        <v>-0.03837505356485867</v>
+        <v>-0.03536188942984084</v>
       </c>
       <c r="D78">
-        <v>0.08298093820923604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07847782508350473</v>
+      </c>
+      <c r="E78">
+        <v>-0.05421203349134616</v>
+      </c>
+      <c r="F78">
+        <v>-0.04638715451183945</v>
+      </c>
+      <c r="G78">
+        <v>-0.08521384490705354</v>
+      </c>
+      <c r="H78">
+        <v>0.0451678276936044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1460090365300541</v>
+        <v>-0.1510634123915474</v>
       </c>
       <c r="C79">
-        <v>-0.07446857924653646</v>
+        <v>-0.04562218157279442</v>
       </c>
       <c r="D79">
-        <v>0.0285303917664936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02673673635762168</v>
+      </c>
+      <c r="E79">
+        <v>0.01973681409693574</v>
+      </c>
+      <c r="F79">
+        <v>-0.02202136328530524</v>
+      </c>
+      <c r="G79">
+        <v>0.04062627667648978</v>
+      </c>
+      <c r="H79">
+        <v>-0.1745575098687237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04219116748479359</v>
+        <v>-0.04308565866278766</v>
       </c>
       <c r="C80">
-        <v>-0.01965347468546302</v>
+        <v>-0.01413875650679676</v>
       </c>
       <c r="D80">
-        <v>0.02811274578988595</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01161050857762575</v>
+      </c>
+      <c r="E80">
+        <v>0.02831881762117942</v>
+      </c>
+      <c r="F80">
+        <v>-0.009152723380484907</v>
+      </c>
+      <c r="G80">
+        <v>0.02380681606448573</v>
+      </c>
+      <c r="H80">
+        <v>-0.03680512230351107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1180432233345426</v>
+        <v>-0.1198176483527836</v>
       </c>
       <c r="C81">
-        <v>-0.06207946686620862</v>
+        <v>-0.03787755668499286</v>
       </c>
       <c r="D81">
-        <v>0.03063831569813229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02240518172306166</v>
+      </c>
+      <c r="E81">
+        <v>-0.01017385209787456</v>
+      </c>
+      <c r="F81">
+        <v>-0.01944637291887422</v>
+      </c>
+      <c r="G81">
+        <v>0.06070262752002693</v>
+      </c>
+      <c r="H81">
+        <v>-0.1524625744658191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1306809108426535</v>
+        <v>-0.131582349013466</v>
       </c>
       <c r="C82">
-        <v>-0.07523550390376008</v>
+        <v>-0.0502325077976795</v>
       </c>
       <c r="D82">
-        <v>0.01626503965648179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02411257446272935</v>
+      </c>
+      <c r="E82">
+        <v>0.01560150312844734</v>
+      </c>
+      <c r="F82">
+        <v>-0.05655307561638349</v>
+      </c>
+      <c r="G82">
+        <v>0.05575747100605392</v>
+      </c>
+      <c r="H82">
+        <v>-0.2174227821605899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07477957811117736</v>
+        <v>-0.08582998790865363</v>
       </c>
       <c r="C83">
-        <v>0.012951596095619</v>
+        <v>0.02570008001166829</v>
       </c>
       <c r="D83">
-        <v>0.0303327908818785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03327110814349018</v>
+      </c>
+      <c r="E83">
+        <v>-0.0183771941796677</v>
+      </c>
+      <c r="F83">
+        <v>-0.05785557243366445</v>
+      </c>
+      <c r="G83">
+        <v>0.07757781754467244</v>
+      </c>
+      <c r="H83">
+        <v>0.05469870526248595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02859937707478069</v>
+        <v>-0.03718635609709694</v>
       </c>
       <c r="C84">
-        <v>-0.02798442545300812</v>
+        <v>-0.0232073032364042</v>
       </c>
       <c r="D84">
-        <v>0.02719922012265898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03105729711945777</v>
+      </c>
+      <c r="E84">
+        <v>-0.02844202248639221</v>
+      </c>
+      <c r="F84">
+        <v>0.05047762141003353</v>
+      </c>
+      <c r="G84">
+        <v>0.06382696672546757</v>
+      </c>
+      <c r="H84">
+        <v>-0.005145588901930563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1207738176559106</v>
+        <v>-0.1219599261450622</v>
       </c>
       <c r="C85">
-        <v>-0.04891585667967747</v>
+        <v>-0.02508816940484171</v>
       </c>
       <c r="D85">
-        <v>0.01610669317558156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01973318166823386</v>
+      </c>
+      <c r="E85">
+        <v>-0.01458422753977124</v>
+      </c>
+      <c r="F85">
+        <v>-0.03767193123895695</v>
+      </c>
+      <c r="G85">
+        <v>0.03573799240197303</v>
+      </c>
+      <c r="H85">
+        <v>-0.1576493948651523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05230274033917152</v>
+        <v>-0.05935175306150791</v>
       </c>
       <c r="C86">
-        <v>-0.02023666724133526</v>
+        <v>-0.01190857882579014</v>
       </c>
       <c r="D86">
-        <v>0.03176825930090239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0275479765039329</v>
+      </c>
+      <c r="E86">
+        <v>-0.05914693818915499</v>
+      </c>
+      <c r="F86">
+        <v>-0.03093693987363106</v>
+      </c>
+      <c r="G86">
+        <v>0.02132186770157902</v>
+      </c>
+      <c r="H86">
+        <v>0.001650199747008318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.116623480031896</v>
+        <v>-0.1211116906776441</v>
       </c>
       <c r="C87">
-        <v>-0.07297631901806895</v>
+        <v>-0.04202891553603633</v>
       </c>
       <c r="D87">
-        <v>0.07845764152000485</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07073850279025591</v>
+      </c>
+      <c r="E87">
+        <v>-0.01839365285771956</v>
+      </c>
+      <c r="F87">
+        <v>-0.005929201425931878</v>
+      </c>
+      <c r="G87">
+        <v>-0.1349230217314884</v>
+      </c>
+      <c r="H87">
+        <v>0.04013961766030953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05244704696866066</v>
+        <v>-0.06052959161161908</v>
       </c>
       <c r="C88">
-        <v>-0.02974655955533747</v>
+        <v>-0.02172457688975533</v>
       </c>
       <c r="D88">
-        <v>0.02245325759990086</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03173589838932751</v>
+      </c>
+      <c r="E88">
+        <v>-0.01795023769589602</v>
+      </c>
+      <c r="F88">
+        <v>-0.01055974527300655</v>
+      </c>
+      <c r="G88">
+        <v>-0.005487948537754063</v>
+      </c>
+      <c r="H88">
+        <v>-0.0523708277850017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0871875712666469</v>
+        <v>-0.09434865508875173</v>
       </c>
       <c r="C89">
-        <v>-0.06716423820102374</v>
+        <v>-0.08156434583607626</v>
       </c>
       <c r="D89">
-        <v>-0.3265170435013723</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3498863718528692</v>
+      </c>
+      <c r="E89">
+        <v>-0.07150519878368837</v>
+      </c>
+      <c r="F89">
+        <v>-0.07734622454057893</v>
+      </c>
+      <c r="G89">
+        <v>0.0237717673627997</v>
+      </c>
+      <c r="H89">
+        <v>-0.003242685259605799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07294277669003009</v>
+        <v>-0.07713801958716024</v>
       </c>
       <c r="C90">
-        <v>-0.05007504596315205</v>
+        <v>-0.06276433106682949</v>
       </c>
       <c r="D90">
-        <v>-0.3123221988645448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3059123890456298</v>
+      </c>
+      <c r="E90">
+        <v>-0.06793678924489972</v>
+      </c>
+      <c r="F90">
+        <v>-0.001540819246314735</v>
+      </c>
+      <c r="G90">
+        <v>0.006187527529126528</v>
+      </c>
+      <c r="H90">
+        <v>0.0003851840762972136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08891541755634866</v>
+        <v>-0.09058569337920327</v>
       </c>
       <c r="C91">
-        <v>-0.05281332008812667</v>
+        <v>-0.03143818460141184</v>
       </c>
       <c r="D91">
-        <v>0.02452309594670028</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0305575574262826</v>
+      </c>
+      <c r="E91">
+        <v>-0.008064153650955813</v>
+      </c>
+      <c r="F91">
+        <v>-0.004346562193195665</v>
+      </c>
+      <c r="G91">
+        <v>0.05173394339767039</v>
+      </c>
+      <c r="H91">
+        <v>-0.08651690733050948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07357438313108476</v>
+        <v>-0.07724023194505195</v>
       </c>
       <c r="C92">
-        <v>-0.0698259783354151</v>
+        <v>-0.08354073637922778</v>
       </c>
       <c r="D92">
-        <v>-0.3423073279679902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3470607424232741</v>
+      </c>
+      <c r="E92">
+        <v>-0.04090860645270353</v>
+      </c>
+      <c r="F92">
+        <v>-0.04917303900898864</v>
+      </c>
+      <c r="G92">
+        <v>-0.0203811330024164</v>
+      </c>
+      <c r="H92">
+        <v>-0.01589155553320548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06485396704304537</v>
+        <v>-0.07415123573242897</v>
       </c>
       <c r="C93">
-        <v>-0.06073390962940579</v>
+        <v>-0.07860990295928677</v>
       </c>
       <c r="D93">
-        <v>-0.3104726624157076</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3087971853102045</v>
+      </c>
+      <c r="E93">
+        <v>-0.02498577728956811</v>
+      </c>
+      <c r="F93">
+        <v>-0.03887622129705162</v>
+      </c>
+      <c r="G93">
+        <v>-0.01759579985288498</v>
+      </c>
+      <c r="H93">
+        <v>0.01074573444198096</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1360510628662245</v>
+        <v>-0.1287393359706672</v>
       </c>
       <c r="C94">
-        <v>-0.0486699801186181</v>
+        <v>-0.01649296969687298</v>
       </c>
       <c r="D94">
-        <v>0.03563416775154153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04475207139952577</v>
+      </c>
+      <c r="E94">
+        <v>0.01579512220293798</v>
+      </c>
+      <c r="F94">
+        <v>-0.01590667362082498</v>
+      </c>
+      <c r="G94">
+        <v>0.06226183452826681</v>
+      </c>
+      <c r="H94">
+        <v>-0.1054318264141119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1207017340432544</v>
+        <v>-0.1273205873053379</v>
       </c>
       <c r="C95">
-        <v>-0.03162652205309536</v>
+        <v>-0.00473350650041178</v>
       </c>
       <c r="D95">
-        <v>0.06661012319365499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07089330232561462</v>
+      </c>
+      <c r="E95">
+        <v>-0.01072523107791598</v>
+      </c>
+      <c r="F95">
+        <v>-0.03378378052601345</v>
+      </c>
+      <c r="G95">
+        <v>-0.01134478661385152</v>
+      </c>
+      <c r="H95">
+        <v>0.04717291882893397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2181236000369738</v>
+        <v>-0.2053171225408229</v>
       </c>
       <c r="C97">
-        <v>-0.05018791900546193</v>
+        <v>-0.002663113214788392</v>
       </c>
       <c r="D97">
-        <v>-0.1052222289184182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08439841415563891</v>
+      </c>
+      <c r="E97">
+        <v>0.226484477212007</v>
+      </c>
+      <c r="F97">
+        <v>0.8998916380400193</v>
+      </c>
+      <c r="G97">
+        <v>-0.06553919711223394</v>
+      </c>
+      <c r="H97">
+        <v>-0.01411309769439925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2498932903764496</v>
+        <v>-0.2772987019911757</v>
       </c>
       <c r="C98">
-        <v>-0.06959551672821922</v>
+        <v>-0.03021471314681216</v>
       </c>
       <c r="D98">
-        <v>0.03226260474220652</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05285233012842391</v>
+      </c>
+      <c r="E98">
+        <v>0.1805264594408556</v>
+      </c>
+      <c r="F98">
+        <v>-0.07445197570458528</v>
+      </c>
+      <c r="G98">
+        <v>0.232065743486838</v>
+      </c>
+      <c r="H98">
+        <v>0.249329449384211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4271156766027227</v>
+        <v>-0.279333587571984</v>
       </c>
       <c r="C99">
-        <v>0.8882486505308395</v>
+        <v>0.935764752640867</v>
       </c>
       <c r="D99">
-        <v>-0.04156857014758884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1265899068882072</v>
+      </c>
+      <c r="E99">
+        <v>-0.06379834691982465</v>
+      </c>
+      <c r="F99">
+        <v>-0.05049726037155933</v>
+      </c>
+      <c r="G99">
+        <v>0.02437686860196155</v>
+      </c>
+      <c r="H99">
+        <v>-0.06937462687026638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04149439779266172</v>
+        <v>-0.0485349055402221</v>
       </c>
       <c r="C101">
-        <v>-0.02977587361409183</v>
+        <v>-0.02567706499102731</v>
       </c>
       <c r="D101">
-        <v>0.009109364028777989</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007156124160012461</v>
+      </c>
+      <c r="E101">
+        <v>-0.06081222855556123</v>
+      </c>
+      <c r="F101">
+        <v>-0.01049828283413828</v>
+      </c>
+      <c r="G101">
+        <v>0.007317248548420242</v>
+      </c>
+      <c r="H101">
+        <v>-0.07551057546681694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
